--- a/Rocket Simulation (Extracted from original rocket team code)/Cp_MinieMagg.xlsx
+++ b/Rocket Simulation (Extracted from original rocket team code)/Cp_MinieMagg.xlsx
@@ -5,40 +5,41 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/wilersanchez_ufl_edu/Documents/Documents/Supplementary Material/Research/Github/Rocket Simulation (Extracted from original rocket team code)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/wilersanchez_ufl_edu/Documents/Documents/Supplementary Material/Research/Rocket Simulation (Extracted from original rocket team code)/Flight-Dynamics/Rocket Simulation (Extracted from original rocket team code)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C44973-D2FC-4AD5-9326-05152E3F183D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90646C65-103B-42AA-AB7E-7CDEE9D626A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="900" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1845" yWindow="2220" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cp_MinieMagg" sheetId="1" r:id="rId1"/>
+    <sheet name="Cp_MinnieMagg_val" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Cnf">Sheet1!$B$19</definedName>
-    <definedName name="Cnn">Sheet1!$B$15</definedName>
-    <definedName name="Cnr">Sheet1!$B$21</definedName>
-    <definedName name="Cr">Sheet1!$B$7</definedName>
-    <definedName name="Ct">Sheet1!$B$8</definedName>
-    <definedName name="d">Sheet1!$B$2</definedName>
-    <definedName name="Lf">Sheet1!$B$10</definedName>
-    <definedName name="Ln">Sheet1!$B$1</definedName>
-    <definedName name="n">Sheet1!$B$14</definedName>
-    <definedName name="Rb">Sheet1!$B$11</definedName>
-    <definedName name="S">Sheet1!$B$9</definedName>
-    <definedName name="X">Sheet1!$B$22</definedName>
-    <definedName name="Xb">Sheet1!$B$13</definedName>
-    <definedName name="Xf">Sheet1!$B$20</definedName>
-    <definedName name="Xn">Sheet1!$B$18</definedName>
-    <definedName name="Xr">Sheet1!$B$12</definedName>
+    <definedName name="Cnf">Cp_MinieMagg!$B$19</definedName>
+    <definedName name="Cnn">Cp_MinieMagg!$B$15</definedName>
+    <definedName name="Cnr">Cp_MinieMagg!$B$21</definedName>
+    <definedName name="Cr">Cp_MinieMagg!$B$7</definedName>
+    <definedName name="Ct">Cp_MinieMagg!$B$8</definedName>
+    <definedName name="d">Cp_MinieMagg!$B$2</definedName>
+    <definedName name="Lf">Cp_MinieMagg!$B$10</definedName>
+    <definedName name="Ln">Cp_MinieMagg!$B$1</definedName>
+    <definedName name="n">Cp_MinieMagg!$B$14</definedName>
+    <definedName name="Rb">Cp_MinieMagg!$B$11</definedName>
+    <definedName name="S">Cp_MinieMagg!$B$9</definedName>
+    <definedName name="X">Cp_MinieMagg!$B$22</definedName>
+    <definedName name="Xb">Cp_MinieMagg!$B$13</definedName>
+    <definedName name="Xf">Cp_MinieMagg!$B$20</definedName>
+    <definedName name="Xn">Cp_MinieMagg!$B$18</definedName>
+    <definedName name="Xr">Cp_MinieMagg!$B$12</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Ln</t>
   </si>
@@ -149,6 +150,12 @@
   </si>
   <si>
     <t>Cone = 1, Ogive = 2</t>
+  </si>
+  <si>
+    <t>no_transition</t>
+  </si>
+  <si>
+    <t>Yes = 1, No = 0</t>
   </si>
 </sst>
 </file>
@@ -568,7 +575,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,6 +751,17 @@
       </c>
       <c r="C16" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,4 +822,104 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>